--- a/Lab2/1.2.b.xlsx
+++ b/Lab2/1.2.b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10efd8982cdf3c5e/Documents/CFU_num_methods/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC10487A199E58805BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A88808-A02E-485E-A27F-AA165FEF5A1E}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC10487A199E58805BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53DE2524-1C3F-4470-9454-1AE614550CEB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>n=4</t>
+    <t>n=4 calc</t>
   </si>
   <si>
-    <t>n=10</t>
+    <t>n=4 datum</t>
   </si>
   <si>
-    <t>n=20</t>
+    <t>n=10 datum</t>
+  </si>
+  <si>
+    <t>n=20 datum</t>
+  </si>
+  <si>
+    <t>n=10 calc</t>
+  </si>
+  <si>
+    <t>n=20 calc</t>
   </si>
 </sst>
 </file>
@@ -121,24 +130,36 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=20</c:v>
+                  <c:v>n=20 datum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -300,22 +321,32 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=10</c:v>
+                  <c:v>n=10 datum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -417,13 +448,104 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=4</c:v>
+                  <c:v>n=4 datum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49D5-42F9-865E-48FD86C32412}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=4 calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -436,23 +558,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>Sheet1!$B$28:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -460,23 +618,59 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:f>Sheet1!$C$28:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>5.8823500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.26102900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.270588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.4558800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>0.50367600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.764706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.938971</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>0.938971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.764706</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50367600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>-8.4558800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.270588</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.26102900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>5.8823500000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -485,7 +679,313 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49D5-42F9-865E-48FD86C32412}"/>
+              <c16:uniqueId val="{00000000-A7D3-4F9B-B6F2-BD2CF0410437}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=10 calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.750143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.0694000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2823500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26764199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.290024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.475435</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82071300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82071300000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.475435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.290024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26764199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2823500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.0694000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.750143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7D3-4F9B-B6F2-BD2CF0410437}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=20 calc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3796600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8812700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15609300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.305898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50127600000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79954000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79954000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50127600000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.305898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15609300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.8812700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3796600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8823500000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A7D3-4F9B-B6F2-BD2CF0410437}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -732,11 +1232,420 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$3</c:f>
+              <c:f>Sheet1!$AK$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=20</c:v>
+                  <c:v>n=20 datum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$6:$AJ$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.99720399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97492800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93087399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86602500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78183100000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68017300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56332000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43388399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29475499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14904200000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>6.1232300000000004E-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.14904200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.29475499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.43388399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.56332000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.68017300000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.78183100000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.86602500000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.93087399999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.97492800000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.99720399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$6:$AK$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.9134300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1698900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7274799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6923099999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2762899999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.119017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.164548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.249247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41839399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41839399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.249247</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.164548</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.119017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2762899999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6923099999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7274799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1698900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9134300000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9459-4B90-9C34-914B1E228E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AH$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=10 datum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$6:$AG$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.98982099999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.909632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54064100000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28173300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>2.8327699999999999E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.28173300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.54064100000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.75575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.909632</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.98982099999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$6:$AH$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.9966600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0230200000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8633700000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17615900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44053399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44053399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17615900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8633700000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0230200000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9966600000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9459-4B90-9C34-914B1E228E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=4 datum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$6:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>6.1232300000000004E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$6:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.4632300000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15318899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15318899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4632300000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9459-4B90-9C34-914B1E228E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=4 calc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -744,9 +1653,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -757,144 +1664,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$29:$H$49</c:f>
+              <c:f>Sheet1!$AD$31:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.99720399999999998</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97492800000000002</c:v>
+                  <c:v>-0.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93087399999999998</c:v>
+                  <c:v>-0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86602500000000004</c:v>
+                  <c:v>-0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78183100000000005</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68017300000000003</c:v>
+                  <c:v>-0.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56332000000000004</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43388399999999999</c:v>
+                  <c:v>-0.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29475499999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14904200000000001</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>6.1232300000000004E-17</c:v>
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.14904200000000001</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.29475499999999999</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.43388399999999999</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.56332000000000004</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.68017300000000003</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.78183100000000005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.86602500000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.93087399999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.97492800000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.99720399999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$29:$I$49</c:f>
+              <c:f>Sheet1!$AE$31:$AE$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>5.9134300000000001E-2</c:v>
+                  <c:v>0.20792099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1698900000000001E-2</c:v>
+                  <c:v>-6.1262400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7274799999999996E-2</c:v>
+                  <c:v>-6.9306900000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6923099999999994E-2</c:v>
+                  <c:v>8.7252499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2762899999999995E-2</c:v>
+                  <c:v>0.326733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.119017</c:v>
+                  <c:v>0.58230199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.164548</c:v>
+                  <c:v>0.80198000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.249247</c:v>
+                  <c:v>0.94863900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41839399999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73777999999999999</c:v>
+                  <c:v>0.94863900000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.80198000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73777999999999999</c:v>
+                  <c:v>0.58230199999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41839399999999999</c:v>
+                  <c:v>0.326733</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.249247</c:v>
+                  <c:v>8.7252499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.164548</c:v>
+                  <c:v>-6.9306900000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.119017</c:v>
+                  <c:v>-6.1262400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.2762899999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.6923099999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7274799999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.1698900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.9134300000000001E-2</c:v>
+                  <c:v>0.20792099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,20 +1785,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-799A-4CDC-9236-E7A768771507}"/>
+              <c16:uniqueId val="{00000003-9459-4B90-9C34-914B1E228E45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
+              <c:f>Sheet1!$AF$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=10</c:v>
+                  <c:v>n=10 calc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -923,7 +1806,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -934,84 +1817,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$29:$E$39</c:f>
+              <c:f>Sheet1!$AD$31:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.98982099999999995</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.909632</c:v>
+                  <c:v>-0.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75575000000000003</c:v>
+                  <c:v>-0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54064100000000004</c:v>
+                  <c:v>-0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28173300000000001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.8327699999999999E-16</c:v>
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.28173300000000001</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.54064100000000004</c:v>
+                  <c:v>-0.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.75575000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.909632</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.98982099999999995</c:v>
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$29:$F$39</c:f>
+              <c:f>Sheet1!$AF$31:$AF$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>5.9966600000000002E-2</c:v>
+                  <c:v>2.77554E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0230200000000007E-2</c:v>
+                  <c:v>4.9347200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8633700000000005E-2</c:v>
+                  <c:v>0.103801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17615900000000001</c:v>
+                  <c:v>0.179364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44053399999999998</c:v>
+                  <c:v>0.173592</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.253751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52338700000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85184300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.44053399999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17615900000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.8633700000000005E-2</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0230200000000007E-2</c:v>
+                  <c:v>0.85184300000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9966600000000002E-2</c:v>
+                  <c:v>0.52338700000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.253751</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.173592</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.179364</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.103801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9347200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.77554E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,20 +1938,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-799A-4CDC-9236-E7A768771507}"/>
+              <c16:uniqueId val="{00000004-9459-4B90-9C34-914B1E228E45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Sheet1!$AG$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=4</c:v>
+                  <c:v>n=20 calc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1040,7 +1959,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1051,48 +1970,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$B$33</c:f>
+              <c:f>Sheet1!$AD$31:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.587785</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>6.1232300000000004E-17</c:v>
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.587785</c:v>
+                  <c:v>-0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$C$33</c:f>
+              <c:f>Sheet1!$AG$31:$AG$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>6.4632300000000004E-2</c:v>
+                  <c:v>6.1428000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15318899999999999</c:v>
+                  <c:v>7.4379000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9.7135799999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14174500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.195572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49541299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80215999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15318899999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4632300000000004E-2</c:v>
+                <c:pt idx="9">
+                  <c:v>0.80215999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49541299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.195572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14174500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7135799999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4379000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1428000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +2091,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-799A-4CDC-9236-E7A768771507}"/>
+              <c16:uniqueId val="{00000005-9459-4B90-9C34-914B1E228E45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2474,23 +3465,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FC9F13-5E17-4E33-85B1-E1BEC180CE2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91FC045-6150-44E3-AB6E-617B70A8C941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,6 +3502,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2776,35 +3771,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I49"/>
+  <dimension ref="B3:AK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-1</v>
       </c>
@@ -2824,7 +3819,7 @@
         <v>5.8823500000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>-0.5</v>
       </c>
@@ -2843,8 +3838,26 @@
       <c r="I5">
         <v>7.1633199999999994E-2</v>
       </c>
+      <c r="AD5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -2863,8 +3876,26 @@
       <c r="I6">
         <v>8.8968000000000005E-2</v>
       </c>
+      <c r="AD6">
+        <v>0.95105700000000004</v>
+      </c>
+      <c r="AE6">
+        <v>6.4632300000000004E-2</v>
+      </c>
+      <c r="AG6">
+        <v>0.98982099999999995</v>
+      </c>
+      <c r="AH6">
+        <v>5.9966600000000002E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>0.99720399999999998</v>
+      </c>
+      <c r="AK6">
+        <v>5.9134300000000001E-2</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.5</v>
       </c>
@@ -2883,8 +3914,26 @@
       <c r="I7">
         <v>0.113122</v>
       </c>
+      <c r="AD7">
+        <v>0.587785</v>
+      </c>
+      <c r="AE7">
+        <v>0.15318899999999999</v>
+      </c>
+      <c r="AG7">
+        <v>0.909632</v>
+      </c>
+      <c r="AH7">
+        <v>7.0230200000000007E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>0.97492800000000002</v>
+      </c>
+      <c r="AK7">
+        <v>6.1698900000000001E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -2903,8 +3952,26 @@
       <c r="I8">
         <v>0.147929</v>
       </c>
+      <c r="AD8" s="1">
+        <v>6.1232300000000004E-17</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0.75575000000000003</v>
+      </c>
+      <c r="AH8">
+        <v>9.8633700000000005E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>0.93087399999999998</v>
+      </c>
+      <c r="AK8">
+        <v>6.7274799999999996E-2</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>-5.5511199999999995E-17</v>
       </c>
@@ -2917,8 +3984,26 @@
       <c r="I9">
         <v>0.2</v>
       </c>
+      <c r="AD9">
+        <v>-0.587785</v>
+      </c>
+      <c r="AE9">
+        <v>0.15318899999999999</v>
+      </c>
+      <c r="AG9">
+        <v>0.54064100000000004</v>
+      </c>
+      <c r="AH9">
+        <v>0.17615900000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>0.86602500000000004</v>
+      </c>
+      <c r="AK9">
+        <v>7.6923099999999994E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>0.2</v>
       </c>
@@ -2931,8 +4016,26 @@
       <c r="I10">
         <v>0.28089900000000001</v>
       </c>
+      <c r="AD10">
+        <v>-0.95105700000000004</v>
+      </c>
+      <c r="AE10">
+        <v>6.4632300000000004E-2</v>
+      </c>
+      <c r="AG10">
+        <v>0.28173300000000001</v>
+      </c>
+      <c r="AH10">
+        <v>0.44053399999999998</v>
+      </c>
+      <c r="AJ10">
+        <v>0.78183100000000005</v>
+      </c>
+      <c r="AK10">
+        <v>9.2762899999999995E-2</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>0.4</v>
       </c>
@@ -2945,8 +4048,20 @@
       <c r="I11">
         <v>0.40983599999999998</v>
       </c>
+      <c r="AG11" s="1">
+        <v>2.8327699999999999E-16</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>0.68017300000000003</v>
+      </c>
+      <c r="AK11">
+        <v>0.119017</v>
+      </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>0.6</v>
       </c>
@@ -2959,8 +4074,20 @@
       <c r="I12">
         <v>0.60975599999999996</v>
       </c>
+      <c r="AG12">
+        <v>-0.28173300000000001</v>
+      </c>
+      <c r="AH12">
+        <v>0.44053399999999998</v>
+      </c>
+      <c r="AJ12">
+        <v>0.56332000000000004</v>
+      </c>
+      <c r="AK12">
+        <v>0.164548</v>
+      </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>0.8</v>
       </c>
@@ -2973,8 +4100,20 @@
       <c r="I13">
         <v>0.86206899999999997</v>
       </c>
+      <c r="AG13">
+        <v>-0.54064100000000004</v>
+      </c>
+      <c r="AH13">
+        <v>0.17615900000000001</v>
+      </c>
+      <c r="AJ13">
+        <v>0.43388399999999999</v>
+      </c>
+      <c r="AK13">
+        <v>0.249247</v>
+      </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>1</v>
       </c>
@@ -2987,369 +4126,659 @@
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="AG14">
+        <v>-0.75575000000000003</v>
+      </c>
+      <c r="AH14">
+        <v>9.8633700000000005E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>0.29475499999999999</v>
+      </c>
+      <c r="AK14">
+        <v>0.41839399999999999</v>
+      </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>0.1</v>
       </c>
       <c r="I15">
         <v>0.86206899999999997</v>
       </c>
+      <c r="AG15">
+        <v>-0.909632</v>
+      </c>
+      <c r="AH15">
+        <v>7.0230200000000007E-2</v>
+      </c>
+      <c r="AJ15">
+        <v>0.14904200000000001</v>
+      </c>
+      <c r="AK15">
+        <v>0.73777999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>0.2</v>
       </c>
       <c r="I16">
         <v>0.60975599999999996</v>
       </c>
+      <c r="AG16">
+        <v>-0.98982099999999995</v>
+      </c>
+      <c r="AH16">
+        <v>5.9966600000000002E-2</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>6.1232300000000004E-17</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>0.3</v>
       </c>
       <c r="I17">
         <v>0.40983599999999998</v>
       </c>
+      <c r="AJ17">
+        <v>-0.14904200000000001</v>
+      </c>
+      <c r="AK17">
+        <v>0.73777999999999999</v>
+      </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>0.4</v>
       </c>
       <c r="I18">
         <v>0.28089900000000001</v>
       </c>
+      <c r="AJ18">
+        <v>-0.29475499999999999</v>
+      </c>
+      <c r="AK18">
+        <v>0.41839399999999999</v>
+      </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>0.5</v>
       </c>
       <c r="I19">
         <v>0.2</v>
       </c>
+      <c r="AJ19">
+        <v>-0.43388399999999999</v>
+      </c>
+      <c r="AK19">
+        <v>0.249247</v>
+      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>0.6</v>
       </c>
       <c r="I20">
         <v>0.147929</v>
       </c>
+      <c r="AJ20">
+        <v>-0.56332000000000004</v>
+      </c>
+      <c r="AK20">
+        <v>0.164548</v>
+      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>0.7</v>
       </c>
       <c r="I21">
         <v>0.113122</v>
       </c>
+      <c r="AJ21">
+        <v>-0.68017300000000003</v>
+      </c>
+      <c r="AK21">
+        <v>0.119017</v>
+      </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>0.8</v>
       </c>
       <c r="I22">
         <v>8.8968000000000005E-2</v>
       </c>
+      <c r="AJ22">
+        <v>-0.78183100000000005</v>
+      </c>
+      <c r="AK22">
+        <v>9.2762899999999995E-2</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>0.9</v>
       </c>
       <c r="I23">
         <v>7.1633199999999994E-2</v>
       </c>
+      <c r="AJ23">
+        <v>-0.86602500000000004</v>
+      </c>
+      <c r="AK23">
+        <v>7.6923099999999994E-2</v>
+      </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
         <v>5.8823500000000001E-2</v>
       </c>
+      <c r="AJ24">
+        <v>-0.93087399999999998</v>
+      </c>
+      <c r="AK24">
+        <v>6.7274799999999996E-2</v>
+      </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ25">
+        <v>-0.97492800000000002</v>
+      </c>
+      <c r="AK25">
+        <v>6.1698900000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AJ26">
+        <v>-0.99720399999999998</v>
+      </c>
+      <c r="AK26">
+        <v>5.9134300000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>5.8823500000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>5.8823500000000001E-2</v>
+      </c>
+      <c r="E28">
+        <v>5.8823500000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>-0.875</v>
+      </c>
+      <c r="C29">
+        <v>-0.26102900000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.750143</v>
+      </c>
+      <c r="E29">
+        <v>1.3796600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>-0.75</v>
+      </c>
+      <c r="C30">
+        <v>-0.270588</v>
+      </c>
+      <c r="D30">
+        <v>-8.0694000000000002E-2</v>
+      </c>
+      <c r="E30">
+        <v>-5.8812700000000002E-2</v>
+      </c>
+      <c r="AD30" t="s">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="AE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>-0.625</v>
+      </c>
+      <c r="C31">
+        <v>-8.4558800000000003E-2</v>
+      </c>
+      <c r="D31">
+        <v>9.2823500000000003E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.15609300000000001</v>
+      </c>
+      <c r="AD31">
+        <v>-1</v>
+      </c>
+      <c r="AE31">
+        <v>0.20792099999999999</v>
+      </c>
+      <c r="AF31">
+        <v>2.77554E-2</v>
+      </c>
+      <c r="AG31">
+        <v>6.1428000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>-0.5</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+      <c r="D32">
+        <v>0.26764199999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+      <c r="AD32">
+        <v>-0.875</v>
+      </c>
+      <c r="AE32">
+        <v>-6.1262400000000002E-2</v>
+      </c>
+      <c r="AF32">
+        <v>4.9347200000000001E-2</v>
+      </c>
+      <c r="AG32">
+        <v>7.4379000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>-0.375</v>
+      </c>
+      <c r="C33">
+        <v>0.50367600000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.290024</v>
+      </c>
+      <c r="E33">
+        <v>0.305898</v>
+      </c>
+      <c r="AD33">
+        <v>-0.75</v>
+      </c>
+      <c r="AE33">
+        <v>-6.9306900000000005E-2</v>
+      </c>
+      <c r="AF33">
+        <v>0.103801</v>
+      </c>
+      <c r="AG33">
+        <v>9.7135799999999994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>-0.25</v>
+      </c>
+      <c r="C34">
+        <v>0.764706</v>
+      </c>
+      <c r="D34">
+        <v>0.475435</v>
+      </c>
+      <c r="E34">
+        <v>0.50127600000000005</v>
+      </c>
+      <c r="AD34">
+        <v>-0.625</v>
+      </c>
+      <c r="AE34">
+        <v>8.7252499999999997E-2</v>
+      </c>
+      <c r="AF34">
+        <v>0.179364</v>
+      </c>
+      <c r="AG34">
+        <v>0.14174500000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>-0.125</v>
+      </c>
+      <c r="C35">
+        <v>0.938971</v>
+      </c>
+      <c r="D35">
+        <v>0.82071300000000003</v>
+      </c>
+      <c r="E35">
+        <v>0.79954000000000003</v>
+      </c>
+      <c r="AD35">
+        <v>-0.5</v>
+      </c>
+      <c r="AE35">
+        <v>0.326733</v>
+      </c>
+      <c r="AF35">
+        <v>0.173592</v>
+      </c>
+      <c r="AG35">
+        <v>0.195572</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>3</v>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>-0.375</v>
+      </c>
+      <c r="AE36">
+        <v>0.58230199999999999</v>
+      </c>
+      <c r="AF36">
+        <v>0.253751</v>
+      </c>
+      <c r="AG36">
+        <v>0.31268000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>0.95105700000000004</v>
-      </c>
-      <c r="C29">
-        <v>6.4632300000000004E-2</v>
-      </c>
-      <c r="E29">
-        <v>0.98982099999999995</v>
-      </c>
-      <c r="F29">
-        <v>5.9966600000000002E-2</v>
-      </c>
-      <c r="H29">
-        <v>0.99720399999999998</v>
-      </c>
-      <c r="I29">
-        <v>5.9134300000000001E-2</v>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.125</v>
+      </c>
+      <c r="C37">
+        <v>0.938971</v>
+      </c>
+      <c r="D37">
+        <v>0.82071300000000003</v>
+      </c>
+      <c r="E37">
+        <v>0.79954000000000003</v>
+      </c>
+      <c r="AD37">
+        <v>-0.25</v>
+      </c>
+      <c r="AE37">
+        <v>0.80198000000000003</v>
+      </c>
+      <c r="AF37">
+        <v>0.52338700000000005</v>
+      </c>
+      <c r="AG37">
+        <v>0.49541299999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>0.587785</v>
-      </c>
-      <c r="C30">
-        <v>0.15318899999999999</v>
-      </c>
-      <c r="E30">
-        <v>0.909632</v>
-      </c>
-      <c r="F30">
-        <v>7.0230200000000007E-2</v>
-      </c>
-      <c r="H30">
-        <v>0.97492800000000002</v>
-      </c>
-      <c r="I30">
-        <v>6.1698900000000001E-2</v>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.25</v>
+      </c>
+      <c r="C38">
+        <v>0.764706</v>
+      </c>
+      <c r="D38">
+        <v>0.475435</v>
+      </c>
+      <c r="E38">
+        <v>0.50127600000000005</v>
+      </c>
+      <c r="AD38">
+        <v>-0.125</v>
+      </c>
+      <c r="AE38">
+        <v>0.94863900000000001</v>
+      </c>
+      <c r="AF38">
+        <v>0.85184300000000002</v>
+      </c>
+      <c r="AG38">
+        <v>0.80215999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>6.1232300000000004E-17</v>
-      </c>
-      <c r="C31">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.375</v>
+      </c>
+      <c r="C39">
+        <v>0.50367600000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.290024</v>
+      </c>
+      <c r="E39">
+        <v>0.305898</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>0.75575000000000003</v>
-      </c>
-      <c r="F31">
-        <v>9.8633700000000005E-2</v>
-      </c>
-      <c r="H31">
-        <v>0.93087399999999998</v>
-      </c>
-      <c r="I31">
-        <v>6.7274799999999996E-2</v>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>-0.587785</v>
-      </c>
-      <c r="C32">
-        <v>0.15318899999999999</v>
-      </c>
-      <c r="E32">
-        <v>0.54064100000000004</v>
-      </c>
-      <c r="F32">
-        <v>0.17615900000000001</v>
-      </c>
-      <c r="H32">
-        <v>0.86602500000000004</v>
-      </c>
-      <c r="I32">
-        <v>7.6923099999999994E-2</v>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
+        <v>0.2</v>
+      </c>
+      <c r="D40">
+        <v>0.26764199999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.2</v>
+      </c>
+      <c r="AD40">
+        <v>0.125</v>
+      </c>
+      <c r="AE40">
+        <v>0.94863900000000001</v>
+      </c>
+      <c r="AF40">
+        <v>0.85184300000000002</v>
+      </c>
+      <c r="AG40">
+        <v>0.80215999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>-0.95105700000000004</v>
-      </c>
-      <c r="C33">
-        <v>6.4632300000000004E-2</v>
-      </c>
-      <c r="E33">
-        <v>0.28173300000000001</v>
-      </c>
-      <c r="F33">
-        <v>0.44053399999999998</v>
-      </c>
-      <c r="H33">
-        <v>0.78183100000000005</v>
-      </c>
-      <c r="I33">
-        <v>9.2762899999999995E-2</v>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.625</v>
+      </c>
+      <c r="C41">
+        <v>-8.4558800000000003E-2</v>
+      </c>
+      <c r="D41">
+        <v>9.2823500000000003E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.15609300000000001</v>
+      </c>
+      <c r="AD41">
+        <v>0.25</v>
+      </c>
+      <c r="AE41">
+        <v>0.80198000000000003</v>
+      </c>
+      <c r="AF41">
+        <v>0.52338700000000005</v>
+      </c>
+      <c r="AG41">
+        <v>0.49541299999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="1">
-        <v>2.8327699999999999E-16</v>
-      </c>
-      <c r="F34">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.75</v>
+      </c>
+      <c r="C42">
+        <v>-0.270588</v>
+      </c>
+      <c r="D42">
+        <v>-8.0694000000000002E-2</v>
+      </c>
+      <c r="E42">
+        <v>-5.8812700000000002E-2</v>
+      </c>
+      <c r="AD42">
+        <v>0.375</v>
+      </c>
+      <c r="AE42">
+        <v>0.58230199999999999</v>
+      </c>
+      <c r="AF42">
+        <v>0.253751</v>
+      </c>
+      <c r="AG42">
+        <v>0.31268000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.875</v>
+      </c>
+      <c r="C43">
+        <v>-0.26102900000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.750143</v>
+      </c>
+      <c r="E43">
+        <v>1.3796600000000001</v>
+      </c>
+      <c r="AD43">
+        <v>0.5</v>
+      </c>
+      <c r="AE43">
+        <v>0.326733</v>
+      </c>
+      <c r="AF43">
+        <v>0.173592</v>
+      </c>
+      <c r="AG43">
+        <v>0.195572</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="H34">
-        <v>0.68017300000000003</v>
-      </c>
-      <c r="I34">
-        <v>0.119017</v>
+      <c r="C44">
+        <v>5.8823500000000001E-2</v>
+      </c>
+      <c r="D44">
+        <v>5.8823500000000001E-2</v>
+      </c>
+      <c r="E44">
+        <v>5.8823500000000001E-2</v>
+      </c>
+      <c r="AD44">
+        <v>0.625</v>
+      </c>
+      <c r="AE44">
+        <v>8.7252499999999997E-2</v>
+      </c>
+      <c r="AF44">
+        <v>0.179364</v>
+      </c>
+      <c r="AG44">
+        <v>0.14174500000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E35">
-        <v>-0.28173300000000001</v>
-      </c>
-      <c r="F35">
-        <v>0.44053399999999998</v>
-      </c>
-      <c r="H35">
-        <v>0.56332000000000004</v>
-      </c>
-      <c r="I35">
-        <v>0.164548</v>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AD45">
+        <v>0.75</v>
+      </c>
+      <c r="AE45">
+        <v>-6.9306900000000005E-2</v>
+      </c>
+      <c r="AF45">
+        <v>0.103801</v>
+      </c>
+      <c r="AG45">
+        <v>9.7135799999999994E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E36">
-        <v>-0.54064100000000004</v>
-      </c>
-      <c r="F36">
-        <v>0.17615900000000001</v>
-      </c>
-      <c r="H36">
-        <v>0.43388399999999999</v>
-      </c>
-      <c r="I36">
-        <v>0.249247</v>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AD46">
+        <v>0.875</v>
+      </c>
+      <c r="AE46">
+        <v>-6.1262400000000002E-2</v>
+      </c>
+      <c r="AF46">
+        <v>4.9347200000000001E-2</v>
+      </c>
+      <c r="AG46">
+        <v>7.4379000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <v>-0.75575000000000003</v>
-      </c>
-      <c r="F37">
-        <v>9.8633700000000005E-2</v>
-      </c>
-      <c r="H37">
-        <v>0.29475499999999999</v>
-      </c>
-      <c r="I37">
-        <v>0.41839399999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E38">
-        <v>-0.909632</v>
-      </c>
-      <c r="F38">
-        <v>7.0230200000000007E-2</v>
-      </c>
-      <c r="H38">
-        <v>0.14904200000000001</v>
-      </c>
-      <c r="I38">
-        <v>0.73777999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E39">
-        <v>-0.98982099999999995</v>
-      </c>
-      <c r="F39">
-        <v>5.9966600000000002E-2</v>
-      </c>
-      <c r="H39" s="1">
-        <v>6.1232300000000004E-17</v>
-      </c>
-      <c r="I39">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AD47">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H40">
-        <v>-0.14904200000000001</v>
-      </c>
-      <c r="I40">
-        <v>0.73777999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H41">
-        <v>-0.29475499999999999</v>
-      </c>
-      <c r="I41">
-        <v>0.41839399999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H42">
-        <v>-0.43388399999999999</v>
-      </c>
-      <c r="I42">
-        <v>0.249247</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H43">
-        <v>-0.56332000000000004</v>
-      </c>
-      <c r="I43">
-        <v>0.164548</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H44">
-        <v>-0.68017300000000003</v>
-      </c>
-      <c r="I44">
-        <v>0.119017</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H45">
-        <v>-0.78183100000000005</v>
-      </c>
-      <c r="I45">
-        <v>9.2762899999999995E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H46">
-        <v>-0.86602500000000004</v>
-      </c>
-      <c r="I46">
-        <v>7.6923099999999994E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H47">
-        <v>-0.93087399999999998</v>
-      </c>
-      <c r="I47">
-        <v>6.7274799999999996E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H48">
-        <v>-0.97492800000000002</v>
-      </c>
-      <c r="I48">
-        <v>6.1698900000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H49">
-        <v>-0.99720399999999998</v>
-      </c>
-      <c r="I49">
-        <v>5.9134300000000001E-2</v>
+      <c r="AE47">
+        <v>0.20792099999999999</v>
+      </c>
+      <c r="AF47">
+        <v>2.77554E-2</v>
+      </c>
+      <c r="AG47">
+        <v>6.1428000000000003E-2</v>
       </c>
     </row>
   </sheetData>
